--- a/src/test/java/pres/auxiliary/tool/file/excel/WriteExcelTest.xlsx
+++ b/src/test/java/pres/auxiliary/tool/file/excel/WriteExcelTest.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
@@ -64,7 +64,7 @@
         <sz val="12.0"/>
         <rFont val="宋体"/>
       </rPr>
-      <t>1.步骤1</t>
+      <t>1.2020-09-04 08:27:55</t>
     </r>
   </si>
   <si>
@@ -76,7 +76,7 @@
         <sz val="12.0"/>
         <rFont val="宋体"/>
       </rPr>
-      <t>2.步骤2</t>
+      <t>2.20200904082755</t>
     </r>
   </si>
   <si>
@@ -88,19 +88,7 @@
         <sz val="12.0"/>
         <rFont val="宋体"/>
       </rPr>
-      <t>3.步骤3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>Approved</t>
+      <t/>
     </r>
   </si>
   <si>
@@ -115,91 +103,54 @@
       <t>测试标题</t>
     </r>
   </si>
-  <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="18">
+  <fonts count="12">
     <font>
       <sz val="11.0"/>
-      <color indexed="12"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <u val="single"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="宋体"/>
@@ -238,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="true" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
@@ -268,36 +219,18 @@
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="C2" xSplit="2.0" ySplit="1.0"/>
@@ -323,14 +256,14 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="12" t="s">
-        <v>16</v>
+      <c r="A2" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>15</v>
+      <c r="C2" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -338,42 +271,20 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4">
-      <c r="B4" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
   </sheetData>
   <autoFilter ref="A1:C1"/>
-  <dataValidations count="2">
+  <dataValidations count="1">
     <dataValidation type="list" sqref="C2" allowBlank="true" errorStyle="stop">
       <formula1>数据有效性!$A$2:$A$4</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="C5" allowBlank="true" errorStyle="stop">
-      <formula1>数据有效性!$A$2:$A$4</formula1>
-    </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink location="'测试Sheet2'!A1" ref="A2"/>
-  </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1.0" ySplit="1.0"/>
@@ -394,19 +305,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
   </sheetData>
   <autoFilter ref="A1:B1"/>
-  <hyperlinks>
-    <hyperlink location="'测试Sheet1'!B2" ref="B2"/>
-  </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
